--- a/data/trans_orig/P36B06_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A0B58E-1F35-4715-945C-5E8377C71C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CCF0EE3-30B1-4E00-8EDB-8B75E3D361CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F485EA56-5B54-4EED-A9E5-8F4505EE99E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E636D7F-039B-468E-B004-5E2B14A75985}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>27,68%</t>
   </si>
   <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>28,99%</t>
   </si>
   <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>72,32%</t>
   </si>
   <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>71,01%</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>25,05%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>70,75%</t>
   </si>
   <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>18,21%</t>
   </si>
   <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>81,87%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>27,09%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>72,91%</t>
   </si>
   <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>74,31%</t>
   </si>
   <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922E3084-129F-456F-9F73-46515F8A9B8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF1E909-B24B-40FD-AC09-829068E9924B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -898,7 +898,7 @@
         <v>1055</v>
       </c>
       <c r="I5" s="7">
-        <v>592006</v>
+        <v>592007</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -949,7 +949,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>833735</v>
+        <v>833736</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1068,7 +1068,7 @@
         <v>3737</v>
       </c>
       <c r="N8" s="7">
-        <v>3205397</v>
+        <v>3205398</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1119,7 +1119,7 @@
         <v>4901</v>
       </c>
       <c r="N9" s="7">
-        <v>4402414</v>
+        <v>4402415</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>785</v>
       </c>
       <c r="D13" s="7">
-        <v>810233</v>
+        <v>810234</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1399,7 +1399,7 @@
         <v>3349</v>
       </c>
       <c r="D15" s="7">
-        <v>3361459</v>
+        <v>3361460</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
